--- a/data/trans_dic/P36BPD04_2023_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_2023_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,72; 97,74</t>
+          <t>93,43; 97,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,94; 96,88</t>
+          <t>92,98; 96,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,77; 96,69</t>
+          <t>93,97; 96,8</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,33; 95,88</t>
+          <t>89,99; 95,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,41; 95,53</t>
+          <t>90,38; 95,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,04; 95,14</t>
+          <t>91,29; 95,15</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,32; 98,81</t>
+          <t>93,48; 98,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,38; 98,36</t>
+          <t>93,59; 98,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,1; 98,56</t>
+          <t>93,99; 98,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,42; 94,38</t>
+          <t>88,71; 94,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,25; 94,17</t>
+          <t>37,41; 94,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,01; 93,72</t>
+          <t>57,15; 93,49</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,14; 95,3</t>
+          <t>90,11; 95,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,2; 97,02</t>
+          <t>94,19; 96,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,11; 95,92</t>
+          <t>93,31; 96,05</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,26; 98,98</t>
+          <t>88,16; 99,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,88; 96,71</t>
+          <t>92,4; 96,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,9; 96,63</t>
+          <t>92,82; 96,64</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,9; 95,54</t>
+          <t>92,92; 95,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,13; 95,14</t>
+          <t>72,0; 95,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>82,27; 94,76</t>
+          <t>81,47; 94,8</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta o zumos al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>484971</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>425691</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>910661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>472023; 494358</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>416071; 433026</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>895222; 922201</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>422829</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>357106</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>779935</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>406952; 433566</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>345762; 364739</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>762119; 794306</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>643128</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>803754</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>624719; 660276</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>155679; 163812</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>784421; 822379</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>957080</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>723869</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1680949</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>917865; 974835</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>365453; 920401</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1149571; 1880724</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1746</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>440838</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>804732</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1245569</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>427124; 451194</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>791913; 814939</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1226914; 1262895</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>230168</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>724073</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>954241</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>212030; 238410</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>703117; 734169</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>929618; 967804</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8130</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3179014</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3196096</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6375111</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3136010; 3221899</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2574057; 3398019</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5662053; 6588489</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36BPD04_2023_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_2023_R-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
